--- a/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.053504119385535</v>
+        <v>-3.119727385613444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.592597385226304</v>
+        <v>-2.465871175434375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.457043542613189</v>
+        <v>-2.398635909279904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.332127049624458</v>
+        <v>-4.946642680450111</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7824199312314591</v>
+        <v>-0.7918472958829973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7291889724581357</v>
+        <v>-0.7398895861871093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8940636975486361</v>
+        <v>-0.9126816585687331</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9278987994649383</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4882047576721384</v>
+        <v>0.4049934972348648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.318581589322914</v>
+        <v>1.232763407932915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8269600420251779</v>
+        <v>0.7694809697013435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.12568919198696</v>
+        <v>1.237393372420225</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3759345005991205</v>
+        <v>0.3832734984533771</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.285397854883354</v>
+        <v>1.015158439484707</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.511886591000535</v>
+        <v>1.125967411310432</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.250571572163041</v>
+        <v>2.220321196630842</v>
       </c>
     </row>
     <row r="7">
@@ -760,26 +760,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.000011803688559</v>
+        <v>-3.128607916120608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.566435152944095</v>
+        <v>-1.782195647152816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1493639685758228</v>
+        <v>-0.1934913595942857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.061339854485079</v>
+        <v>-3.419119344218728</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7504002387982123</v>
+        <v>-0.7372050609260231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6333409509500521</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>-0.6628657131466115</v>
-      </c>
+        <v>-0.6502583964954397</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -790,22 +788,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3333227547488718</v>
+        <v>0.2305808903622699</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.328679858208903</v>
+        <v>1.25348306818458</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.117501340383562</v>
+        <v>2.249481793221876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.161521023334366</v>
+        <v>1.183816875659705</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1568731869535236</v>
+        <v>0.1845419841354135</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.22837271375159</v>
+        <v>1.250739049296594</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -854,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.147149280417556</v>
+        <v>-5.165285249693778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.828694005754423</v>
+        <v>-1.760898593884926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9317232961225007</v>
+        <v>-0.9930228216922391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.111119668634267</v>
+        <v>-2.024688977896885</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7736091879838169</v>
+        <v>-0.7785565235255093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5723626996522497</v>
+        <v>-0.580497971955536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6871912809187638</v>
+        <v>-0.755317680944671</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7595007042132597</v>
+        <v>-0.7462833614445928</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.8353066316800298</v>
+        <v>-0.7750525987327226</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.970959172542707</v>
+        <v>1.78061148727272</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.175783322067556</v>
+        <v>1.328049631819014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5632915371221627</v>
+        <v>0.6534384477908557</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1816338792728994</v>
+        <v>-0.1785732430603339</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.346796224826477</v>
+        <v>1.240112400589042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.741547526582611</v>
+        <v>3.166536279857197</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6615006519824751</v>
+        <v>0.7344453096467651</v>
       </c>
     </row>
     <row r="13">
@@ -943,7 +941,7 @@
         <v>0.1701886971516528</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.03434074261416635</v>
+        <v>-0.03434074261416636</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.347175645968158</v>
+        <v>-4.350075617552302</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.964172708212571</v>
+        <v>-1.911018047596591</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.059802653369455</v>
+        <v>-1.240771667477251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.058502313616393</v>
+        <v>-1.922691866811736</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8000230143431468</v>
+        <v>-0.8003050184037213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.556169942087348</v>
+        <v>-0.5411019012497078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6618008314254691</v>
+        <v>-0.7788253676606043</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4689652059625459</v>
+        <v>-0.4698772800887634</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01710501194378481</v>
+        <v>0.05312499496602442</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.978054884489636</v>
+        <v>2.055868822821727</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.448847820615048</v>
+        <v>1.36379047541654</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.347512038349458</v>
+        <v>1.511681539070449</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08630668998614398</v>
+        <v>0.09922957957981361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.120381990919257</v>
+        <v>1.261536369721363</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.957447216488521</v>
+        <v>3.139051998800453</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6825738853364745</v>
+        <v>0.8520302563515357</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1029,7 @@
         <v>-2.531317097073457</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.6991154202552023</v>
+        <v>-0.699115420255202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4339809561659285</v>
@@ -1043,7 +1041,7 @@
         <v>-0.6492535774830177</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2132237619627743</v>
+        <v>-0.2132237619627742</v>
       </c>
     </row>
     <row r="17">
@@ -1054,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.138271770350777</v>
+        <v>-4.178071696397592</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.024490778459733</v>
+        <v>-1.405730247907691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.153220846500917</v>
+        <v>-5.05073182935191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.549719033715438</v>
+        <v>-2.551352168730126</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7862951222358485</v>
+        <v>-0.8036747279599707</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2885982815096572</v>
+        <v>-0.3670215298085879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8993911136297549</v>
+        <v>-0.8835370836470481</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5580423305838788</v>
+        <v>-0.5768415588896568</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9514820220202523</v>
+        <v>0.5835644608837927</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.150917117310154</v>
+        <v>3.821290270649618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.387934450339911</v>
+        <v>-0.4145110349139113</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8985488232614087</v>
+        <v>0.7620480325293778</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6140348039684816</v>
+        <v>0.3827497209439557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.367820791910122</v>
+        <v>1.987270596572421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.05049969175204267</v>
+        <v>-0.09963981219805521</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4201841449460794</v>
+        <v>0.3339719335430241</v>
       </c>
     </row>
     <row r="19">
@@ -1131,7 +1129,7 @@
         <v>2.410868153522863</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.084153584920698</v>
+        <v>1.084153584920697</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9001752706937722</v>
@@ -1143,7 +1141,7 @@
         <v>1.565864397517121</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1632019396080151</v>
+        <v>0.1632019396080149</v>
       </c>
     </row>
     <row r="20">
@@ -1154,28 +1152,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.437997864110986</v>
+        <v>-0.6190571190245105</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.452729348018286</v>
+        <v>-5.679970505006836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.03929607798586491</v>
+        <v>0.06166591377893637</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.69559185313342</v>
+        <v>-1.484225671667993</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1855138504242299</v>
+        <v>-0.1796479344756867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6239455104734499</v>
+        <v>-0.6605209184420059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2162168099311784</v>
+        <v>-0.103651812599831</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2132398227568011</v>
+        <v>-0.2022878676778783</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1184,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.605493464192804</v>
+        <v>5.724549577945257</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.754094396023867</v>
+        <v>1.817206037486903</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.266008409112945</v>
+        <v>4.972582854458993</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.869838714968819</v>
+        <v>3.894016846949756</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.497081009310616</v>
+        <v>3.245903285511717</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5119348729265708</v>
+        <v>0.4822715257518373</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.146156735686873</v>
+        <v>9.339296535227925</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7703093624525437</v>
+        <v>0.7800329393200386</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1229,7 @@
         <v>0.8313032535483211</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.444842642102852</v>
+        <v>6.444842642102841</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1490298731615952</v>
@@ -1243,7 +1241,7 @@
         <v>0.06006196288512958</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2971996860278587</v>
+        <v>0.2971996860278582</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1252,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.773624733281879</v>
+        <v>-3.870026593776522</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.192548714545192</v>
+        <v>-4.853803180998308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.865984507680348</v>
+        <v>-5.27451993966142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.610928755484935</v>
+        <v>1.378428058549851</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3358081352322789</v>
+        <v>-0.3198679893628038</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2052583935434445</v>
+        <v>-0.2306212807349687</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2905929911922602</v>
+        <v>-0.3088129904331586</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.06082798769259606</v>
+        <v>0.05078201544948177</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1284,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.684470040807201</v>
+        <v>6.353382069229865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.992287879629055</v>
+        <v>8.381005176160656</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.267297025291623</v>
+        <v>6.37258576174167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.2653495142727</v>
+        <v>11.37110930269912</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.049803922352194</v>
+        <v>1.021035286653608</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5840211704141816</v>
+        <v>0.613547233591052</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6877683816276766</v>
+        <v>0.5752111420083748</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5940195383834772</v>
+        <v>0.5866294247199529</v>
       </c>
     </row>
     <row r="25">
@@ -1354,28 +1352,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.879599317941695</v>
+        <v>-1.856056784061243</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2056613905724667</v>
+        <v>-0.3703342973673042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2259031231371373</v>
+        <v>-0.219232969121647</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2005407776126059</v>
+        <v>0.3144409084182659</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3967690681793161</v>
+        <v>-0.4002843037181166</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0495517529112176</v>
+        <v>-0.0883639384623526</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07564393941486312</v>
+        <v>-0.08594830274055916</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03946123938169765</v>
+        <v>0.05260067166550157</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1384,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.04792835493008102</v>
+        <v>0.01623859648264305</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.708234146401657</v>
+        <v>1.720532269412302</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.441962059946058</v>
+        <v>1.420751377773057</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.132552568211841</v>
+        <v>2.225556886318664</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.002122978595346174</v>
+        <v>0.004976775919606546</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4986853389175319</v>
+        <v>0.4956490627514816</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6881056105423323</v>
+        <v>0.6781212722299942</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5328435750936646</v>
+        <v>0.5348001452210683</v>
       </c>
     </row>
     <row r="28">
